--- a/test_info/data/HU1-001/CP-003/objects.xlsx
+++ b/test_info/data/HU1-001/CP-003/objects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan_piedrahita\Documents\jp\bvc\tests\A2censoTest\test_info\data\HU1-001\CP-003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E461EFA8-9BF2-49F8-8A26-104F2FF0D628}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11AD74C-BFC1-44DB-AEA3-8A19DC50BCD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7875" xr2:uid="{58DB2863-25CE-48F2-AA27-D6192448486C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58DB2863-25CE-48F2-AA27-D6192448486C}"/>
   </bookViews>
   <sheets>
     <sheet name="body" sheetId="3" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>visible</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/div/div[5]/div</t>
-  </si>
-  <si>
     <t>section_conocenos</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>#showcase</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div/div/div[4]/div/div[1]/img</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,19 +471,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -502,19 +502,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -533,19 +533,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -564,19 +564,19 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -587,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
